--- a/OnBoard/output/trust/catch/Catch_Trust_55.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_55.xlsx
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>5.057</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="G14">
-        <v>1.5</v>
+        <v>5.041</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="I15">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="16">
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="17">
@@ -1067,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="18">
@@ -1108,7 +1108,7 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="I19">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="I20">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="21">
@@ -1231,7 +1231,7 @@
         <v>137</v>
       </c>
       <c r="I21">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="22">
@@ -1269,10 +1269,10 @@
         <v>0.06</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="23">
@@ -1313,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="I23">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="24">
@@ -1351,10 +1351,10 @@
         <v>0.048</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I24">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="25">
@@ -1392,10 +1392,10 @@
         <v>0.034</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="I26">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="I28">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
       <c r="I30">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="I31">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="I32">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>27</v>
       </c>
       <c r="I34">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>176</v>
       </c>
       <c r="I35">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="36">
@@ -1843,10 +1843,10 @@
         <v>0.505</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="37">
@@ -1884,10 +1884,10 @@
         <v>0.789</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="38">
@@ -1925,10 +1925,10 @@
         <v>0.005</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="39">
@@ -1966,10 +1966,10 @@
         <v>0.16</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <v>7.920823529411765</v>
+        <v>7.15635294117647</v>
       </c>
     </row>
   </sheetData>
